--- a/datastatic/datasets/online/C2_environmental_taxes_eurostat_2016.xlsx
+++ b/datastatic/datasets/online/C2_environmental_taxes_eurostat_2016.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>original_title</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Switzerland</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Serbia</t>
@@ -299,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -337,6 +340,11 @@
     <font>
       <b/>
       <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -431,9 +439,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1470,7 +1476,9 @@
       <c r="A68" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="19">
+        <v>6.23</v>
+      </c>
       <c r="C68" s="17">
         <v>6.23</v>
       </c>
@@ -1480,10 +1488,13 @@
       <c r="E68" s="17">
         <v>6.34</v>
       </c>
+      <c r="F68" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="17">
         <v>10.82</v>
